--- a/Data processor (andy and melvin)/elec 344 lab 3/lab 3 elec 344.xlsx
+++ b/Data processor (andy and melvin)/elec 344 lab 3/lab 3 elec 344.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy L\Documents\UBC Third year\2nd semester\ELEC 344\labs\lab 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy L\Desktop\Thermasleep_Repo\Data processor (andy and melvin)\elec 344 lab 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06055DAA-4028-494C-8518-FFC0CA468D4A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B0E3DA-0B46-4F4D-819A-330A8757D590}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{4091B814-7F3F-4BA3-ACFA-19B0690DF365}"/>
   </bookViews>
@@ -189,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -197,15 +197,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1644,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0EEC4F-B7DA-4BE0-A119-BDFF23376548}">
   <dimension ref="D2:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1656,207 +1673,228 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
       <c r="M2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>1.37</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>2.5299999999999998</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>3.43</v>
       </c>
+      <c r="H3" s="4"/>
       <c r="M3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>1.54</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>3.05</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>4.08</v>
       </c>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <f>E3/E4</f>
         <v>0.88961038961038963</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <f t="shared" ref="F5:G5" si="0">F3/F4</f>
         <v>0.82950819672131149</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <f t="shared" si="0"/>
         <v>0.84068627450980393</v>
       </c>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <f>AVERAGE(E5:G5)</f>
         <v>0.85326828694716828</v>
       </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>10.01</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>15.03</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>20.13</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>25.05</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="4">
         <v>30.04</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="4">
         <v>35.11</v>
       </c>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>0.6</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>0.63</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>0.65</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>0.67</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <v>0.68</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <v>0.69</v>
       </c>
     </row>
     <row r="11" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>403</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>613</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>830</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <v>1039</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="4">
         <v>1250</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="4">
         <v>1471</v>
       </c>
     </row>
     <row r="12" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <f>(E9-(E10*($E$6)))/(E11*2*PI()/60)</f>
         <v>0.22506102148275262</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <f t="shared" ref="F12:J12" si="1">(F9-(F10*($E$6)))/(F11*2*PI()/60)</f>
         <v>0.22576283386403923</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <f t="shared" si="1"/>
         <v>0.22521815362168021</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <f t="shared" si="1"/>
         <v>0.22497655867944238</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <f t="shared" si="1"/>
         <v>0.2250561226482107</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="4">
         <f t="shared" si="1"/>
         <v>0.22410170352102465</v>
       </c>
     </row>
     <row r="13" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <f>AVERAGE(E12:J12)</f>
         <v>0.22502939896952492</v>
       </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <f>$E$13*E10</f>
         <v>0.13501763938171496</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <f t="shared" ref="F14:J14" si="2">$E$13*F10</f>
         <v>0.1417685213508007</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <f t="shared" si="2"/>
         <v>0.14626910933019122</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
         <f t="shared" si="2"/>
         <v>0.1507696973095817</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <f t="shared" si="2"/>
         <v>0.15301999129927696</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="4">
         <f t="shared" si="2"/>
         <v>0.15527028528897219</v>
       </c>
@@ -2409,6 +2447,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>